--- a/fp/fplk/srv/import/Example_import_Template.xlsx
+++ b/fp/fplk/srv/import/Example_import_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Site\flip-web\fp\fplk\srv\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5AD62-6EEE-40B4-A878-91F6805C1668}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18330" windowHeight="7005"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18330" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Москва</t>
   </si>
@@ -73,16 +74,62 @@
   </si>
   <si>
     <t xml:space="preserve">Красная площадь, д.1 </t>
+  </si>
+  <si>
+    <t>Email получателя</t>
+  </si>
+  <si>
+    <t>test@test.ru</t>
+  </si>
+  <si>
+    <t>Название компании отправителя</t>
+  </si>
+  <si>
+    <t>*Компания отпраителя*</t>
+  </si>
+  <si>
+    <t>Адрес отправителя</t>
+  </si>
+  <si>
+    <t>Красная площадь, д.2</t>
+  </si>
+  <si>
+    <t>Контактное лицо отправителя</t>
+  </si>
+  <si>
+    <t>Телефон контактного лица отправителя</t>
+  </si>
+  <si>
+    <t>Email отпраителя</t>
+  </si>
+  <si>
+    <t>Город отправления</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -106,17 +153,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -149,15 +239,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Наименование шаблона" dataDxfId="5"/>
-    <tableColumn id="2" name="Название компании получателя" dataDxfId="4"/>
-    <tableColumn id="3" name="Контактное лицо получателя" dataDxfId="3"/>
-    <tableColumn id="4" name="Телефон контактого лица получателя" dataDxfId="2"/>
-    <tableColumn id="5" name="Адрес получателя" dataDxfId="1"/>
-    <tableColumn id="6" name="Город доставки получателя" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Наименование шаблона" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Название компании получателя" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Контактное лицо получателя" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Телефон контактого лица получателя" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Адрес получателя" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Город доставки получателя" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{7EE4AF77-9438-468C-B840-858F999C44AA}" name="Email получателя" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="9" xr3:uid="{68CEA274-3F3B-45B9-9900-2046E21649F6}" name="Название компании отправителя" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{9442DD7E-B7B1-4310-A626-F9D5E3AA8513}" name="Адрес отправителя" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{20C8C4BF-B6F5-4951-81CD-656975373002}" name="Город отправления" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="11" xr3:uid="{54279E32-4CC2-451C-906A-A2BCC3A9CA35}" name="Контактное лицо отправителя" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6F0CA146-F954-4A69-979D-14F2BCC7C1B8}" name="Телефон контактного лица отправителя" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{EBC0E86A-E766-4AC8-995C-AA67656B86C7}" name="Email отпраителя" dataDxfId="1" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -239,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -274,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -449,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,14 +595,15 @@
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" customWidth="1"/>
+    <col min="9" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -490,8 +622,29 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -510,8 +663,29 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -530,8 +704,29 @@
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -550,12 +745,40 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9FC37BF1-6119-46F4-B4AB-110EB93B00F7}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{696557F7-26A9-4DD5-B8A3-9E5A25B2E022}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{F633B863-3FCD-4811-8093-5630C5CFAD67}"/>
+    <hyperlink ref="M2" r:id="rId4" xr:uid="{CD4E4A15-0620-4566-93AE-15B7FD4F08C4}"/>
+    <hyperlink ref="M3" r:id="rId5" xr:uid="{D07313AD-FBCE-478B-90D5-A030A19DAE7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>